--- a/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 14.xlsx
+++ b/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 14.xlsx
@@ -385,16 +385,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>182.3151018</v>
+        <v>58.30364000000002</v>
       </c>
       <c r="B2">
-        <v>100.4917811819306</v>
+        <v>28.24414223569907</v>
       </c>
       <c r="C2">
-        <v>93.12378000000004</v>
+        <v>60.18999999999999</v>
       </c>
       <c r="D2">
-        <v>67.21614800000118</v>
+        <v>42.37880000000001</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -402,16 +402,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>147.9889148</v>
+        <v>52.36047999999999</v>
       </c>
       <c r="B3">
-        <v>83.47572645750346</v>
+        <v>22.04638628731702</v>
       </c>
       <c r="C3">
-        <v>90.74866000000009</v>
+        <v>62.93800000000002</v>
       </c>
       <c r="D3">
-        <v>63.90462600000049</v>
+        <v>42.39380000000002</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>125.9185666</v>
+        <v>48.23328000000001</v>
       </c>
       <c r="B4">
-        <v>72.31496019367206</v>
+        <v>20.65113974098282</v>
       </c>
       <c r="C4">
-        <v>88.07163999999996</v>
+        <v>62.08000000000001</v>
       </c>
       <c r="D4">
-        <v>60.56829999999935</v>
+        <v>42.40840000000001</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -436,16 +436,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>124.0450578</v>
+        <v>53.31401999999999</v>
       </c>
       <c r="B5">
-        <v>71.03672953890293</v>
+        <v>21.85173747827847</v>
       </c>
       <c r="C5">
-        <v>87.80067999999967</v>
+        <v>61.698</v>
       </c>
       <c r="D5">
-        <v>60.45958799999936</v>
+        <v>42.3992</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -453,16 +453,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>125.1282972</v>
+        <v>52.33694000000001</v>
       </c>
       <c r="B6">
-        <v>70.0779358531663</v>
+        <v>21.85231514454247</v>
       </c>
       <c r="C6">
-        <v>87.58212</v>
+        <v>61.88599999999999</v>
       </c>
       <c r="D6">
-        <v>59.52174999999861</v>
+        <v>42.41600000000001</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -470,16 +470,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>137.7684204</v>
+        <v>56.57773999999999</v>
       </c>
       <c r="B7">
-        <v>68.9429716733798</v>
+        <v>26.52653340322478</v>
       </c>
       <c r="C7">
-        <v>88.62252000000019</v>
+        <v>60.61999999999998</v>
       </c>
       <c r="D7">
-        <v>57.35864000000241</v>
+        <v>42.4128</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>127.4707098</v>
+        <v>51.47374000000001</v>
       </c>
       <c r="B8">
-        <v>61.69991554344291</v>
+        <v>18.98053015783279</v>
       </c>
       <c r="C8">
-        <v>87.56966000000018</v>
+        <v>61.79600000000001</v>
       </c>
       <c r="D8">
-        <v>56.64088400000223</v>
+        <v>42.42</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>125.0793882</v>
+        <v>48.38308</v>
       </c>
       <c r="B9">
-        <v>58.75629675534273</v>
+        <v>21.49210866791809</v>
       </c>
       <c r="C9">
-        <v>84.3061800000001</v>
+        <v>64.59600000000002</v>
       </c>
       <c r="D9">
-        <v>54.57682999999959</v>
+        <v>42.38420000000001</v>
       </c>
       <c r="E9">
         <v>256</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>125.9277178</v>
+        <v>55.55949999999999</v>
       </c>
       <c r="B10">
-        <v>59.72644452374647</v>
+        <v>24.91859486347495</v>
       </c>
       <c r="C10">
-        <v>82.0202799999998</v>
+        <v>61.708</v>
       </c>
       <c r="D10">
-        <v>53.41975999999959</v>
+        <v>42.41820000000001</v>
       </c>
       <c r="E10">
         <v>512</v>
@@ -538,16 +538,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>124.7253432</v>
+        <v>52.90410000000001</v>
       </c>
       <c r="B11">
-        <v>60.19253003271925</v>
+        <v>24.54835266591223</v>
       </c>
       <c r="C11">
-        <v>79.63275999999998</v>
+        <v>61.67</v>
       </c>
       <c r="D11">
-        <v>52.50014800000154</v>
+        <v>42.42920000000002</v>
       </c>
       <c r="E11">
         <v>1024</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>131.9559478</v>
+        <v>54.93105999999999</v>
       </c>
       <c r="B12">
-        <v>59.54150703144708</v>
+        <v>23.87262646246533</v>
       </c>
       <c r="C12">
-        <v>78.4191999999998</v>
+        <v>63.14200000000001</v>
       </c>
       <c r="D12">
-        <v>52.1936260000014</v>
+        <v>42.40160000000001</v>
       </c>
       <c r="E12">
         <v>2048</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>30.9096766</v>
+        <v>46.86026000000001</v>
       </c>
       <c r="B13">
-        <v>17.96126959445829</v>
+        <v>18.31911569133183</v>
       </c>
       <c r="C13">
-        <v>37.20189999999999</v>
+        <v>65.03</v>
       </c>
       <c r="D13">
-        <v>34.38957400000262</v>
+        <v>42.40800000000002</v>
       </c>
       <c r="E13">
         <v>4096</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>28.9754</v>
+        <v>59.07737999999998</v>
       </c>
       <c r="B14">
-        <v>9.846731114699947</v>
+        <v>27.05682322660219</v>
       </c>
       <c r="C14">
-        <v>30.55812000000012</v>
+        <v>63.42</v>
       </c>
       <c r="D14">
-        <v>31.78908399999781</v>
+        <v>42.45679999999999</v>
       </c>
       <c r="E14">
         <v>8192</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>29.614359</v>
+        <v>65.25543999999998</v>
       </c>
       <c r="B15">
-        <v>9.470823419097144</v>
+        <v>34.64626707116366</v>
       </c>
       <c r="C15">
-        <v>27.04025999999996</v>
+        <v>65.892</v>
       </c>
       <c r="D15">
-        <v>30.08430000000004</v>
+        <v>42.56599999999996</v>
       </c>
       <c r="E15">
         <v>16384</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>33.8801586</v>
+        <v>98.30344000000001</v>
       </c>
       <c r="B16">
-        <v>9.718844771218755</v>
+        <v>46.88046702077956</v>
       </c>
       <c r="C16">
-        <v>24.65605999999999</v>
+        <v>63.80799999999999</v>
       </c>
       <c r="D16">
-        <v>28.45097600000036</v>
+        <v>42.83220000000001</v>
       </c>
       <c r="E16">
         <v>32768</v>
